--- a/biology/Botanique/Soldat_laboureur_(poire)/Soldat_laboureur_(poire).xlsx
+++ b/biology/Botanique/Soldat_laboureur_(poire)/Soldat_laboureur_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Soldat laboureur est le nom d'une variété de poire.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poirier « Soldat laboureur» est une variété ancienne créée en 1820, en Belgique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poirier « Soldat laboureur» est une variété ancienne créée en 1820, en Belgique.
 </t>
         </is>
       </c>
@@ -542,13 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre de bonne vigueur, peu sensible à la tavelure. Floraison début avril, à l'abri des gelées. Fructification dès septembre[1].
-Description du fruit
-D'une grosseur au-dessus de la moyenne et d'une forme assez variable, la poire est le plus souvent turbinée et globuleuse avec une peau mince, souvent rugueuse et à fond jaune doré[2].
-Maturité
-En automne : dégustation entre octobre et décembre
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre de bonne vigueur, peu sensible à la tavelure. Floraison début avril, à l'abri des gelées. Fructification dès septembre.
 </t>
         </is>
       </c>
@@ -574,10 +586,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une grosseur au-dessus de la moyenne et d'une forme assez variable, la poire est le plus souvent turbinée et globuleuse avec une peau mince, souvent rugueuse et à fond jaune doré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Soldat_laboureur_(poire)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soldat_laboureur_(poire)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En automne : dégustation entre octobre et décembre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Soldat_laboureur_(poire)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soldat_laboureur_(poire)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Autofertile, il pollinisera des variétés voisines du verger.
 La variété est peu sensible à la tavelure du poirier.
